--- a/survey.xlsx
+++ b/survey.xlsx
@@ -33924,7 +33924,7 @@
     </row>
     <row r="261" spans="1:43">
       <c r="A261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B261" t="s">
         <v>283</v>
